--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -1591,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="20850" windowHeight="5160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -585,9 +585,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -627,16 +627,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -657,6 +657,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -672,10 +680,63 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,24 +749,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,14 +765,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,44 +773,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,25 +798,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,157 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +996,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,46 +1005,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,164 +1052,188 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1591,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2755,7 +2755,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="5160" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -586,9 +586,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -627,10 +627,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,7 +696,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,21 +724,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -680,61 +740,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,10 +756,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,13 +778,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -798,187 +798,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,15 +989,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1021,6 +1012,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,21 +1066,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1092,148 +1092,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowHeight="13605" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="223">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -112,63 +115,84 @@
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de visite</t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
-    <t>1.1. Member Code</t>
+    <t>1.1. Member's code</t>
   </si>
   <si>
     <t>1.1. Código do Membro</t>
   </si>
   <si>
+    <t>1.1. Code des membres</t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
     <t>motherCode</t>
   </si>
   <si>
-    <t>2.1. Mother's Code</t>
+    <t>2.1. Mother's code</t>
   </si>
   <si>
     <t>2.1. Código da Mãe</t>
   </si>
   <si>
+    <t>2.1. Code de la mère</t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
-    <t>2.2. Mother's Name</t>
+    <t>2.2. Mother's name</t>
   </si>
   <si>
     <t>2.2. Nome da Mãe</t>
   </si>
   <si>
+    <t>2.2. Nom de la mère</t>
+  </si>
+  <si>
     <t>fatherCode</t>
   </si>
   <si>
-    <t>2.3. Father's Code</t>
+    <t>2.3. Father's code</t>
   </si>
   <si>
     <t>2.3. Código do Pai</t>
   </si>
   <si>
+    <t>2.3. Code du père</t>
+  </si>
+  <si>
     <t>fatherName</t>
   </si>
   <si>
-    <t>2.4. Father's Name</t>
+    <t>2.4. Father's name</t>
   </si>
   <si>
     <t>2.4. Nome do Pai</t>
   </si>
   <si>
+    <t>2.4. Nom du père</t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
-    <t>3.1. Member Name</t>
+    <t>3.1. Member's name</t>
   </si>
   <si>
     <t>3.1. Nome completo</t>
   </si>
   <si>
+    <t>3.1. Nom et prénom</t>
+  </si>
+  <si>
     <t>memberGender</t>
   </si>
   <si>
@@ -184,30 +208,39 @@
     <t>3.2. Sexo</t>
   </si>
   <si>
+    <t>3.2. Genre</t>
+  </si>
+  <si>
     <t>memberDob</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>3.3. Date of Birth</t>
+    <t>3.3. Date of birth</t>
   </si>
   <si>
     <t>3.3. Data de Nascimento</t>
   </si>
   <si>
+    <t>3.3. Date de naissance</t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
     <t>relationships</t>
   </si>
   <si>
-    <t>3.4. Relation with the Head of Household</t>
+    <t>3.4. Relation with the head of household</t>
   </si>
   <si>
     <t>3.4. Relação com o chefe do agregado</t>
   </si>
   <si>
+    <t>3.4. Relation avec le chef de ménage</t>
+  </si>
+  <si>
     <t>migration</t>
   </si>
   <si>
@@ -217,12 +250,15 @@
     <t>migtypes</t>
   </si>
   <si>
-    <t>4.1. Migration Type</t>
+    <t>4.1. Immigration Type</t>
   </si>
   <si>
     <t>4.1. Tipo de Imigração</t>
   </si>
   <si>
+    <t>4.1. Type d'immigration</t>
+  </si>
+  <si>
     <t>selected_only</t>
   </si>
   <si>
@@ -232,24 +268,30 @@
     <t>extmigtypes</t>
   </si>
   <si>
-    <t>4.2. External InMigration Type</t>
+    <t>4.2. External Inmigration type</t>
   </si>
   <si>
     <t>4.2. Tipo de Imigração Externa</t>
   </si>
   <si>
+    <t>4.2. Type d'immigration externe</t>
+  </si>
+  <si>
     <t>${migrationType} = 'XEN'</t>
   </si>
   <si>
     <t>originCode</t>
   </si>
   <si>
-    <t>5.1. Origin Household Code</t>
+    <t>5.1. Origin household code</t>
   </si>
   <si>
     <t>5.1. Código do Agregado de Origem</t>
   </si>
   <si>
+    <t>5.1. Code de l'agrégat de provenance</t>
+  </si>
+  <si>
     <t>${extMigrationType} = 'REENTRY'</t>
   </si>
   <si>
@@ -262,36 +304,48 @@
     <t>5.2. Lugar de Origem</t>
   </si>
   <si>
+    <t>5.2. Lieu d'origine</t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
-    <t>5.3. Destination Household Code</t>
+    <t>5.3. Destination household code</t>
   </si>
   <si>
     <t>5.3. Agregado de Destino</t>
   </si>
   <si>
+    <t>5.3. Agrégat de destination</t>
+  </si>
+  <si>
     <t>migrationDate</t>
   </si>
   <si>
-    <t>5.4. Migration Date</t>
+    <t>5.4. Migration date</t>
   </si>
   <si>
     <t>5.4. Data da migração?</t>
   </si>
   <si>
+    <t>5.4. Date de migration ?</t>
+  </si>
+  <si>
     <t>migrationReason</t>
   </si>
   <si>
     <t>reasons</t>
   </si>
   <si>
-    <t>5.5. Reason for In Migration</t>
+    <t>5.5. Reason for Immigration</t>
   </si>
   <si>
     <t>5.5. Causas da migração</t>
   </si>
   <si>
+    <t>5.5. Causes de la migration</t>
+  </si>
+  <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
@@ -301,6 +355,9 @@
     <t>5.5.1. Especifique outras causas da migração</t>
   </si>
   <si>
+    <t>5.5.1. Précisez les autres causes de migration</t>
+  </si>
+  <si>
     <t>${migrationReason} = 'OTHER'</t>
   </si>
   <si>
@@ -313,10 +370,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>6.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>4.1. Códido do Inquiridor</t>
+    <t>6.1. Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>4.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>4.1. Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -325,19 +385,25 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>6.2. Collected Date</t>
+    <t>6.2. Collected date</t>
   </si>
   <si>
     <t>4.2. Data da Visita</t>
   </si>
   <si>
+    <t>4.2. Date de la visite</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
-    <t>Access Granted to Modules</t>
-  </si>
-  <si>
-    <t>Acesso permitido ao Módulos</t>
+    <t>Access granted to modules</t>
+  </si>
+  <si>
+    <t>Acesso permitido aos Módulos</t>
+  </si>
+  <si>
+    <t>Accès aux modules autorisé</t>
   </si>
   <si>
     <t>value</t>
@@ -352,6 +418,9 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -361,6 +430,9 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>Féminin</t>
+  </si>
+  <si>
     <t>HOH</t>
   </si>
   <si>
@@ -370,6 +442,9 @@
     <t>Chefe do Agregado</t>
   </si>
   <si>
+    <t>Chef de famille</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -379,7 +454,10 @@
     <t>Spouse</t>
   </si>
   <si>
-    <t>Esposo/a</t>
+    <t>Cônjuge</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
   </si>
   <si>
     <t>SON</t>
@@ -391,6 +469,9 @@
     <t>Filho/Filha</t>
   </si>
   <si>
+    <t>Fils/Fille</t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -400,6 +481,9 @@
     <t>Irmão/Irmã</t>
   </si>
   <si>
+    <t>Frère/Sœur</t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -409,6 +493,9 @@
     <t>Pai/Mãe</t>
   </si>
   <si>
+    <t>Père/Mère</t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -418,6 +505,9 @@
     <t>Neto/a</t>
   </si>
   <si>
+    <t>Petit-fils/Petite-fille</t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -427,6 +517,9 @@
     <t>Sem relação</t>
   </si>
   <si>
+    <t>Aucun lien</t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -436,42 +529,57 @@
     <t>Outro parente</t>
   </si>
   <si>
+    <t>Autre relatif</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
-    <t>Don't Know</t>
+    <t>Don't know</t>
   </si>
   <si>
     <t>Não sabe</t>
   </si>
   <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
     <t>ENT</t>
   </si>
   <si>
-    <t>Internal InMigration</t>
+    <t>Internal inmigration</t>
   </si>
   <si>
     <t>Imigração Interna</t>
   </si>
   <si>
+    <t>Immigration Interne</t>
+  </si>
+  <si>
     <t>XEN</t>
   </si>
   <si>
-    <t>External InMigration</t>
+    <t>External inmigration</t>
   </si>
   <si>
     <t>Imigração Externa</t>
   </si>
   <si>
+    <t>Immigration Externe</t>
+  </si>
+  <si>
     <t>ENTRY</t>
   </si>
   <si>
-    <t>First Entry into the DSS</t>
+    <t>First entry into the DSS</t>
   </si>
   <si>
     <t>Primeira Entrada no DSS</t>
   </si>
   <si>
+    <t>Première entrée dans le DSS</t>
+  </si>
+  <si>
     <t>REENTRY</t>
   </si>
   <si>
@@ -481,6 +589,9 @@
     <t>Retorno ao DSS</t>
   </si>
   <si>
+    <t>Retour au DSS</t>
+  </si>
+  <si>
     <t>CAME_WITH_RELATIVES</t>
   </si>
   <si>
@@ -490,6 +601,9 @@
     <t>Veio com os parentes</t>
   </si>
   <si>
+    <t>Il est venu avec ses relatifs</t>
+  </si>
+  <si>
     <t>FARMING</t>
   </si>
   <si>
@@ -499,6 +613,9 @@
     <t>Agricultura</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
@@ -508,6 +625,9 @@
     <t>Mudança de estado civil</t>
   </si>
   <si>
+    <t>Changement d'état civil</t>
+  </si>
+  <si>
     <t>FISHING</t>
   </si>
   <si>
@@ -517,15 +637,21 @@
     <t>Pesca</t>
   </si>
   <si>
+    <t>Pêche</t>
+  </si>
+  <si>
     <t>EDUCATION</t>
   </si>
   <si>
-    <t>Education/Scholl</t>
+    <t>Education/School</t>
   </si>
   <si>
     <t>Educação</t>
   </si>
   <si>
+    <t>Éducation</t>
+  </si>
+  <si>
     <t>HEALTH_REASON</t>
   </si>
   <si>
@@ -535,6 +661,9 @@
     <t>Saúde</t>
   </si>
   <si>
+    <t>Santé</t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -544,6 +673,9 @@
     <t>Trabalho</t>
   </si>
   <si>
+    <t>Travail</t>
+  </si>
+  <si>
     <t>NEW_HOUSE</t>
   </si>
   <si>
@@ -553,6 +685,9 @@
     <t>Mudança para nova casa</t>
   </si>
   <si>
+    <t>Déménagement vers un nouveau logement</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -562,6 +697,9 @@
     <t>Outra</t>
   </si>
   <si>
+    <t>Autre</t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
@@ -572,6 +710,9 @@
   </si>
   <si>
     <t>form_name::pt</t>
+  </si>
+  <si>
+    <t>form_name::fr</t>
   </si>
   <si>
     <t>rawExternalInMigration</t>
@@ -586,11 +727,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -600,16 +741,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -627,14 +763,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -642,8 +770,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,30 +795,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,14 +833,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,45 +891,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -770,9 +899,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,21 +916,123 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -804,7 +1042,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,115 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,56 +1124,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -992,11 +1134,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,15 +1190,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,6 +1211,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1051,17 +1229,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,202 +1246,195 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1589,30 +1754,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="39.0190476190476" customWidth="1"/>
-    <col min="10" max="10" width="16.352380952381" customWidth="1"/>
-    <col min="11" max="11" width="14.0857142857143" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
+    <col min="9" max="10" width="39" customWidth="1"/>
+    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1809523809524" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1805,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1652,553 +1817,619 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="4:12">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13">
       <c r="D8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13">
       <c r="D9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
-        <v>62</v>
+      <c r="N13" t="b">
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>83</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>91</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>96</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
       <c r="M20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="M21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
       <c r="M22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2243,26 +2474,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
-    <col min="3" max="4" width="22.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.8190476190476" customWidth="1"/>
+    <col min="3" max="4" width="22.8190476190476" customWidth="1"/>
+    <col min="5" max="5" width="37.1809523809524" customWidth="1"/>
+    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2270,477 +2502,567 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F4" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>144</v>
+        <v>178</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>147</v>
+        <v>182</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>150</v>
+        <v>186</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>153</v>
+        <v>190</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>156</v>
+        <v>194</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>159</v>
+        <v>198</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D26" t="s">
         <v>162</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E26" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2752,39 +3074,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="30.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13605" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="231">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -133,7 +136,7 @@
     <t>parents</t>
   </si>
   <si>
-    <t>motherCode</t>
+    <t>memberMotherCode</t>
   </si>
   <si>
     <t>2.1. Mother's code</t>
@@ -145,7 +148,7 @@
     <t>2.1. Code de la mère</t>
   </si>
   <si>
-    <t>motherName</t>
+    <t>memberMotherName</t>
   </si>
   <si>
     <t>2.2. Mother's name</t>
@@ -157,7 +160,7 @@
     <t>2.2. Nom de la mère</t>
   </si>
   <si>
-    <t>fatherCode</t>
+    <t>memberFatherCode</t>
   </si>
   <si>
     <t>2.3. Father's code</t>
@@ -169,7 +172,7 @@
     <t>2.3. Code du père</t>
   </si>
   <si>
-    <t>fatherName</t>
+    <t>memberFatherName</t>
   </si>
   <si>
     <t>2.4. Father's name</t>
@@ -392,6 +395,27 @@
   </si>
   <si>
     <t>4.2. Date de la visite</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -726,10 +750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -763,8 +787,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,38 +873,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,46 +911,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,32 +931,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,7 +970,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +994,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +1042,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,144 +1145,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,16 +1174,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,6 +1198,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1194,17 +1242,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,26 +1264,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1249,152 +1273,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1433,10 +1457,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,10 +1783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1777,7 +1806,7 @@
     <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1834,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1820,35 +1849,38 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1858,29 +1890,29 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1890,25 +1922,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1918,27 +1950,27 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1948,25 +1980,25 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1976,25 +2008,25 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2004,47 +2036,47 @@
     </row>
     <row r="8" spans="4:13">
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:13">
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2052,22 +2084,22 @@
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2075,53 +2107,53 @@
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -2129,65 +2161,65 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
@@ -2195,54 +2227,54 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+        <v>89</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2253,22 +2285,22 @@
     <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
@@ -2276,25 +2308,25 @@
     <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" t="b">
         <v>1</v>
       </c>
@@ -2302,52 +2334,52 @@
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+        <v>109</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" t="b">
         <v>1</v>
       </c>
@@ -2357,25 +2389,25 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" t="b">
         <v>1</v>
       </c>
@@ -2383,62 +2415,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I22" t="s">
+      <c r="E22" s="17" t="s">
         <v>116</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1"/>
@@ -2463,6 +2591,15 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2494,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2511,433 +2648,433 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -3090,30 +3227,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="241">
   <si>
     <t>group</t>
   </si>
@@ -253,13 +253,13 @@
     <t>migtypes</t>
   </si>
   <si>
-    <t>4.1. Immigration Type</t>
-  </si>
-  <si>
-    <t>4.1. Tipo de Imigração</t>
-  </si>
-  <si>
-    <t>4.1. Type d'immigration</t>
+    <t>3.5. Immigration Type</t>
+  </si>
+  <si>
+    <t>3.5. Tipo de Imigração</t>
+  </si>
+  <si>
+    <t>3.5. Type d'immigration</t>
   </si>
   <si>
     <t>selected_only</t>
@@ -271,13 +271,13 @@
     <t>extmigtypes</t>
   </si>
   <si>
-    <t>4.2. External Inmigration type</t>
-  </si>
-  <si>
-    <t>4.2. Tipo de Imigração Externa</t>
-  </si>
-  <si>
-    <t>4.2. Type d'immigration externe</t>
+    <t>3.5.1. External Inmigration type</t>
+  </si>
+  <si>
+    <t>3.5.1. Tipo de Imigração Externa</t>
+  </si>
+  <si>
+    <t>3.5.1. Type d'immigration externe</t>
   </si>
   <si>
     <t>${migrationType} = 'XEN'</t>
@@ -286,13 +286,13 @@
     <t>originCode</t>
   </si>
   <si>
-    <t>5.1. Origin household code</t>
-  </si>
-  <si>
-    <t>5.1. Código do Agregado de Origem</t>
-  </si>
-  <si>
-    <t>5.1. Code de l'agrégat de provenance</t>
+    <t>4.1. Origin household code</t>
+  </si>
+  <si>
+    <t>4.1. Código do Agregado de Origem</t>
+  </si>
+  <si>
+    <t>4.1. Code de l'agrégat de provenance</t>
   </si>
   <si>
     <t>${extMigrationType} = 'REENTRY'</t>
@@ -301,37 +301,37 @@
     <t>originOther</t>
   </si>
   <si>
-    <t>5.2. Place the member moved from?</t>
-  </si>
-  <si>
-    <t>5.2. Lugar de Origem</t>
-  </si>
-  <si>
-    <t>5.2. Lieu d'origine</t>
+    <t>4.2. Place the member moved from?</t>
+  </si>
+  <si>
+    <t>4.2. Lugar de Origem</t>
+  </si>
+  <si>
+    <t>4.2. Lieu d'origine</t>
   </si>
   <si>
     <t>destinationCode</t>
   </si>
   <si>
-    <t>5.3. Destination household code</t>
-  </si>
-  <si>
-    <t>5.3. Agregado de Destino</t>
-  </si>
-  <si>
-    <t>5.3. Agrégat de destination</t>
+    <t>4.3. Destination household code</t>
+  </si>
+  <si>
+    <t>4.3. Agregado de Destino</t>
+  </si>
+  <si>
+    <t>4.3. Agrégat de destination</t>
   </si>
   <si>
     <t>migrationDate</t>
   </si>
   <si>
-    <t>5.4. Migration date</t>
-  </si>
-  <si>
-    <t>5.4. Data da migração?</t>
-  </si>
-  <si>
-    <t>5.4. Date de migration ?</t>
+    <t>4.4. Migration date</t>
+  </si>
+  <si>
+    <t>4.4. Data da migração?</t>
+  </si>
+  <si>
+    <t>4.4. Date de migration ?</t>
   </si>
   <si>
     <t>migrationReason</t>
@@ -340,30 +340,60 @@
     <t>reasons</t>
   </si>
   <si>
-    <t>5.5. Reason for Immigration</t>
-  </si>
-  <si>
-    <t>5.5. Causas da migração</t>
-  </si>
-  <si>
-    <t>5.5. Causes de la migration</t>
+    <t>4.5. Reason for Immigration</t>
+  </si>
+  <si>
+    <t>4.5. Causas da migração</t>
+  </si>
+  <si>
+    <t>4.5. Causes de la migration</t>
   </si>
   <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
-    <t>5.5.1. Specify other reason for migration</t>
-  </si>
-  <si>
-    <t>5.5.1. Especifique outras causas da migração</t>
-  </si>
-  <si>
-    <t>5.5.1. Précisez les autres causes de migration</t>
+    <t>4.5.1. Specify other reason for migration</t>
+  </si>
+  <si>
+    <t>4.5.1. Especifique outras causas da migração</t>
+  </si>
+  <si>
+    <t>4.5.1. Précisez les autres causes de migration</t>
   </si>
   <si>
     <t>${migrationReason} = 'OTHER'</t>
   </si>
   <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>educations</t>
+  </si>
+  <si>
+    <t>4.6. Education Level</t>
+  </si>
+  <si>
+    <t>4.6. Nivel de Educação</t>
+  </si>
+  <si>
+    <t>4.6. Niveau d'éducation</t>
+  </si>
+  <si>
+    <t>call:calculateAge(${memberDob}) &gt; 5</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religions</t>
+  </si>
+  <si>
+    <t>4.7. Religion</t>
+  </si>
+  <si>
+    <t>4.7. Religião</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -373,13 +403,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>6.1. Collected by fieldworker</t>
-  </si>
-  <si>
-    <t>4.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>4.1. Code de l'enquêteur</t>
+    <t>Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -388,13 +418,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>6.2. Collected date</t>
-  </si>
-  <si>
-    <t>4.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>4.2. Date de la visite</t>
+    <t>Collected date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de la visite</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -750,10 +780,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -803,32 +833,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,32 +854,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,19 +885,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,6 +914,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -931,10 +944,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,43 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1018,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1102,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,67 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,14 +1178,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1173,17 +1203,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,30 +1271,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1242,13 +1291,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,161 +1341,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1454,6 +1533,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1461,11 +1543,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,10 +1880,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1834,7 +1931,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1849,7 +1946,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="31" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1865,15 +1962,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1890,7 +1987,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1911,8 +2008,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1939,8 +2036,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1969,8 +2066,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1997,8 +2094,8 @@
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -2025,8 +2122,8 @@
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2050,8 +2147,8 @@
       <c r="J8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2075,8 +2172,8 @@
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2098,8 +2195,8 @@
       <c r="J10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2124,8 +2221,8 @@
       <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2152,8 +2249,8 @@
       <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -2186,8 +2283,8 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2218,8 +2315,8 @@
       <c r="J14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
@@ -2247,8 +2344,8 @@
       <c r="J15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
@@ -2273,8 +2370,8 @@
       <c r="J16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2299,8 +2396,8 @@
       <c r="J17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
@@ -2325,8 +2422,8 @@
       <c r="J18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
       <c r="M18" t="b">
         <v>1</v>
       </c>
@@ -2348,8 +2445,8 @@
       <c r="J19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
       <c r="M19" t="b">
         <v>1</v>
       </c>
@@ -2357,222 +2454,263 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" t="s">
+      <c r="I20" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:14">
+      <c r="A22" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
+      <c r="I22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="J22" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" spans="1:14">
+      <c r="A23" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="16" customFormat="1" spans="1:17">
+      <c r="A24" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="N24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="1" spans="1:17">
+      <c r="A25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="H25" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="N25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="16" customFormat="1" spans="1:17">
+      <c r="A26" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="H26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="N26" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="17" customFormat="1" spans="1:14">
+      <c r="A27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="H27" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1"/>
@@ -2600,6 +2738,12 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2631,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2651,16 +2795,16 @@
         <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2669,16 +2813,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2687,19 +2831,19 @@
         <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2707,16 +2851,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2724,16 +2868,16 @@
         <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2741,16 +2885,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2758,16 +2902,16 @@
         <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2775,16 +2919,16 @@
         <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2792,16 +2936,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2809,16 +2953,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2826,16 +2970,16 @@
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2843,16 +2987,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2860,16 +3004,16 @@
         <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2877,16 +3021,16 @@
         <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2894,16 +3038,16 @@
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2911,16 +3055,16 @@
         <v>95</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2928,16 +3072,16 @@
         <v>95</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2945,16 +3089,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2962,16 +3106,16 @@
         <v>95</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2979,16 +3123,16 @@
         <v>95</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2996,16 +3140,16 @@
         <v>95</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3013,16 +3157,16 @@
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3030,16 +3174,16 @@
         <v>95</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3047,16 +3191,16 @@
         <v>95</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -3065,16 +3209,16 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -3227,30 +3371,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -780,10 +780,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -817,25 +817,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,7 +842,112 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,100 +962,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,7 +994,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,55 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1054,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1096,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,43 +1126,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,31 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,17 +1261,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,17 +1287,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,6 +1311,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1330,170 +1335,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2758,7 +2758,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="262">
   <si>
     <t>group</t>
   </si>
@@ -394,6 +394,51 @@
     <t>4.7. Religião</t>
   </si>
   <si>
+    <t>hasPhoneNumbers</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>4.8.  Does the member have a phone number?</t>
+  </si>
+  <si>
+    <t>4.8. O membro tem um número de telefone?</t>
+  </si>
+  <si>
+    <t>4.8. Le membre a-t-il un numéro de téléphone?</t>
+  </si>
+  <si>
+    <t>phonePrimary</t>
+  </si>
+  <si>
+    <t>4.8.1. What is the member's primary phone number?</t>
+  </si>
+  <si>
+    <t>4.8.1. Qual é o número de telefone principal do membro?</t>
+  </si>
+  <si>
+    <t>4.8.1. Quel est le numéro de téléphone principal du membre?</t>
+  </si>
+  <si>
+    <t>${hasPhoneNumbers} = 'true'</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>phoneAlternative</t>
+  </si>
+  <si>
+    <t>4.8.2. What is the member's alternative phone number?  (If available)</t>
+  </si>
+  <si>
+    <t>4.8.2. Qual é o número de telefone alternativo do membro? (Se disponível)</t>
+  </si>
+  <si>
+    <t>4.8.2. Quel est le numéro de téléphone alternatif du membre ? (Si disponible)</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -461,6 +506,24 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
   <si>
     <t>M</t>
@@ -781,9 +844,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -817,11 +880,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,6 +892,28 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,9 +927,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,16 +940,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,31 +979,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,6 +1000,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -924,36 +1008,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -961,6 +1015,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -994,25 +1057,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,55 +1111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1135,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,13 +1189,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,49 +1237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,11 +1326,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,15 +1344,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,6 +1380,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1352,152 +1415,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1533,6 +1596,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1543,6 +1607,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1560,6 +1628,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1880,10 +1949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1931,7 +2000,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1946,7 +2015,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1962,15 +2031,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1987,7 +2056,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="31"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -2008,8 +2077,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -2036,8 +2105,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -2066,8 +2135,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -2094,8 +2163,8 @@
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -2122,8 +2191,8 @@
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2147,8 +2216,8 @@
       <c r="J8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2172,8 +2241,8 @@
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2195,8 +2264,8 @@
       <c r="J10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2221,8 +2290,8 @@
       <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2249,8 +2318,8 @@
       <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -2283,8 +2352,8 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2315,8 +2384,8 @@
       <c r="J14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
@@ -2344,8 +2413,8 @@
       <c r="J15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
@@ -2370,8 +2439,8 @@
       <c r="J16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2396,8 +2465,8 @@
       <c r="J17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
@@ -2422,8 +2491,8 @@
       <c r="J18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
       <c r="M18" t="b">
         <v>1</v>
       </c>
@@ -2445,8 +2514,8 @@
       <c r="J19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" t="b">
         <v>1</v>
       </c>
@@ -2455,271 +2524,363 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20" t="s">
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:14">
-      <c r="A22" s="21" t="s">
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" s="15" customFormat="1" spans="1:17">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:17">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="16" customFormat="1" spans="1:14">
-      <c r="A23" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="I23" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="J23" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="P23" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" s="16" customFormat="1" spans="1:17">
-      <c r="A24" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:17">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="N24" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" spans="1:17">
-      <c r="A25" s="22" t="s">
-        <v>114</v>
+      <c r="J24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" s="16" customFormat="1" spans="1:14">
+      <c r="A25" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="17" customFormat="1" spans="1:14">
+      <c r="A26" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="17" customFormat="1" spans="1:17">
+      <c r="A27" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="N27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="17" customFormat="1" spans="1:17">
+      <c r="A28" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="N28" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="17" customFormat="1" spans="1:17">
+      <c r="A29" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="D29" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="N29" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="18" customFormat="1" spans="1:14">
+      <c r="A30" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="N25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="16" customFormat="1" spans="1:17">
-      <c r="A26" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D30" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="N26" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="17" customFormat="1" spans="1:14">
-      <c r="A27" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
+      <c r="H30" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1"/>
@@ -2744,6 +2905,15 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2755,10 +2925,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2775,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2791,93 +2961,95 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>157</v>
+      <c r="B6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2885,16 +3057,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2902,16 +3074,16 @@
         <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2919,16 +3091,16 @@
         <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2936,16 +3108,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2953,16 +3125,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2970,118 +3142,118 @@
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>185</v>
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>189</v>
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>199</v>
+      <c r="B17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" t="s">
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3089,16 +3261,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3106,16 +3278,16 @@
         <v>95</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>211</v>
+        <v>223</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3123,16 +3295,16 @@
         <v>95</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3140,16 +3312,16 @@
         <v>95</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>219</v>
+        <v>231</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3157,16 +3329,16 @@
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3174,69 +3346,87 @@
         <v>95</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C26" t="s">
-        <v>179</v>
+      <c r="B26" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="10"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="A27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8"/>
@@ -3250,9 +3440,9 @@
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8"/>
@@ -3268,7 +3458,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8"/>
@@ -3284,7 +3474,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
@@ -3318,23 +3508,33 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="40" spans="6:6">
+    <row r="39" spans="1:6">
+      <c r="A39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="9"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="10"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="10"/>
@@ -3344,6 +3544,12 @@
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3371,30 +3577,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
+    <workbookView windowWidth="18045" windowHeight="6120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -843,10 +843,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -895,16 +895,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,18 +918,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,7 +956,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,8 +978,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,8 +994,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,40 +1024,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,7 +1057,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,13 +1177,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,157 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,11 +1315,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,6 +1335,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,6 +1369,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1358,21 +1388,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1397,160 +1412,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1560,7 +1560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,7 +1610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1952,7 +1951,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2000,7 +1999,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2015,7 +2014,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="34" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -2056,7 +2055,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -2077,8 +2076,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -2105,8 +2104,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -2135,8 +2134,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -2163,8 +2162,8 @@
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -2191,8 +2190,8 @@
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2216,8 +2215,8 @@
       <c r="J8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2241,8 +2240,8 @@
       <c r="J9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2264,8 +2263,8 @@
       <c r="J10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2290,8 +2289,8 @@
       <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2318,8 +2317,8 @@
       <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -2352,8 +2351,8 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2384,8 +2383,8 @@
       <c r="J14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
@@ -2413,8 +2412,8 @@
       <c r="J15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
       <c r="M15" t="b">
         <v>1</v>
       </c>
@@ -2439,8 +2438,8 @@
       <c r="J16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2465,8 +2464,8 @@
       <c r="J17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
@@ -2491,8 +2490,8 @@
       <c r="J18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="M18" t="b">
         <v>1</v>
       </c>
@@ -2514,8 +2513,8 @@
       <c r="J19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" t="b">
         <v>1</v>
       </c>
@@ -2546,8 +2545,8 @@
       <c r="J20" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="21" t="b">
         <v>1</v>
       </c>
@@ -2581,8 +2580,8 @@
       <c r="J21" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="21" t="b">
         <v>1</v>
       </c>
@@ -2591,109 +2590,89 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" s="15" customFormat="1" spans="1:17">
+    <row r="22" s="15" customFormat="1" spans="1:13">
       <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:17">
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="15" customFormat="1" spans="1:16">
       <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23" t="s">
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:17">
+    </row>
+    <row r="24" s="15" customFormat="1" spans="1:16">
       <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23" t="s">
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="O24" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="Q24" s="23"/>
     </row>
     <row r="25" s="16" customFormat="1" spans="1:14">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>129</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -2702,8 +2681,8 @@
       <c r="E25" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="16" t="s">
         <v>132</v>
       </c>
@@ -2713,8 +2692,8 @@
       <c r="J25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="16" t="b">
         <v>1</v>
       </c>
@@ -2723,7 +2702,7 @@
       </c>
     </row>
     <row r="26" s="17" customFormat="1" spans="1:14">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2741,8 +2720,8 @@
       <c r="J26" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="17" t="b">
         <v>1</v>
       </c>
@@ -2751,7 +2730,7 @@
       </c>
     </row>
     <row r="27" s="17" customFormat="1" spans="1:17">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2769,8 +2748,8 @@
       <c r="J27" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
       <c r="N27" s="17" t="b">
         <v>1</v>
       </c>
@@ -2779,7 +2758,7 @@
       </c>
     </row>
     <row r="28" s="17" customFormat="1" spans="1:17">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -2797,8 +2776,8 @@
       <c r="J28" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
       <c r="N28" s="17" t="b">
         <v>1</v>
       </c>
@@ -2807,7 +2786,7 @@
       </c>
     </row>
     <row r="29" s="17" customFormat="1" spans="1:17">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -2825,8 +2804,8 @@
       <c r="J29" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
       <c r="N29" s="17" t="b">
         <v>1</v>
       </c>
@@ -2835,7 +2814,7 @@
       </c>
     </row>
     <row r="30" s="18" customFormat="1" spans="1:14">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>129</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -2853,8 +2832,8 @@
       <c r="J30" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="18" t="b">
         <v>1</v>
       </c>
@@ -2864,23 +2843,23 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1"/>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="6120" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="321">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code des membres</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የአባሉ ኮድ  </t>
+  </si>
+  <si>
     <t>parents</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>2.1. Code de la mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የእናቱ ኮድ  </t>
+  </si>
+  <si>
     <t>memberMotherName</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>2.2. Nom de la mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የእናቱ ስም  </t>
+  </si>
+  <si>
     <t>memberFatherCode</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t>2.3. Code du père</t>
   </si>
   <si>
+    <t xml:space="preserve">2.3. የአባቱ ኮድ  </t>
+  </si>
+  <si>
     <t>memberFatherName</t>
   </si>
   <si>
@@ -184,6 +202,9 @@
     <t>2.4. Nom du père</t>
   </si>
   <si>
+    <t xml:space="preserve">2.4. የአባቱ ስም  </t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
@@ -196,6 +217,9 @@
     <t>3.1. Nom et prénom</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የአባሉ ስም  </t>
+  </si>
+  <si>
     <t>memberGender</t>
   </si>
   <si>
@@ -214,6 +238,9 @@
     <t>3.2. Genre</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. ፆታ  </t>
+  </si>
+  <si>
     <t>memberDob</t>
   </si>
   <si>
@@ -229,6 +256,9 @@
     <t>3.3. Date de naissance</t>
   </si>
   <si>
+    <t xml:space="preserve">3.3. የትውልድ ቀን  </t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
@@ -244,6 +274,9 @@
     <t>3.4. Relation avec le chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">3.4. ከየቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
     <t>migration</t>
   </si>
   <si>
@@ -262,6 +295,9 @@
     <t>3.5. Type d'immigration</t>
   </si>
   <si>
+    <t xml:space="preserve">3.5. የመግቢያ አይነት  </t>
+  </si>
+  <si>
     <t>selected_only</t>
   </si>
   <si>
@@ -280,6 +316,9 @@
     <t>3.5.1. Type d'immigration externe</t>
   </si>
   <si>
+    <t xml:space="preserve">3.5.1. ውጫዊ መግቢያ አይነት  </t>
+  </si>
+  <si>
     <t>${migrationType} = 'XEN'</t>
   </si>
   <si>
@@ -295,6 +334,9 @@
     <t>4.1. Code de l'agrégat de provenance</t>
   </si>
   <si>
+    <t xml:space="preserve">4.1. የመነሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>${extMigrationType} = 'REENTRY'</t>
   </si>
   <si>
@@ -310,6 +352,9 @@
     <t>4.2. Lieu d'origine</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2. አባሉ ከወዴት መጣ?  </t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
@@ -322,6 +367,9 @@
     <t>4.3. Agrégat de destination</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3. የመድረሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>migrationDate</t>
   </si>
   <si>
@@ -334,6 +382,9 @@
     <t>4.4. Date de migration ?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4. የመግቢያ ቀን  </t>
+  </si>
+  <si>
     <t>migrationReason</t>
   </si>
   <si>
@@ -349,6 +400,9 @@
     <t>4.5. Causes de la migration</t>
   </si>
   <si>
+    <t xml:space="preserve">4.5. የመግቢያ ምክንያት  </t>
+  </si>
+  <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
@@ -361,6 +415,9 @@
     <t>4.5.1. Précisez les autres causes de migration</t>
   </si>
   <si>
+    <t xml:space="preserve">4.5.1. ሌላ የመግቢያ ምክንያት ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${migrationReason} = 'OTHER'</t>
   </si>
   <si>
@@ -379,6 +436,9 @@
     <t>4.6. Niveau d'éducation</t>
   </si>
   <si>
+    <t xml:space="preserve">4.6. የትምህርት ደረጃ  </t>
+  </si>
+  <si>
     <t>call:calculateAge(${memberDob}) &gt; 5</t>
   </si>
   <si>
@@ -394,6 +454,9 @@
     <t>4.7. Religião</t>
   </si>
   <si>
+    <t xml:space="preserve">4.7. ሃይማኖት  </t>
+  </si>
+  <si>
     <t>hasPhoneNumbers</t>
   </si>
   <si>
@@ -409,6 +472,9 @@
     <t>4.8. Le membre a-t-il un numéro de téléphone?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.8. አባሉ የራሱ ስልክ ቁጥር አለው?  </t>
+  </si>
+  <si>
     <t>phonePrimary</t>
   </si>
   <si>
@@ -421,6 +487,9 @@
     <t>4.8.1. Quel est le numéro de téléphone principal du membre?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.8.1. የአባሉ ዋና የስልክ ቁጥር ምንድነው?  </t>
+  </si>
+  <si>
     <t>${hasPhoneNumbers} = 'true'</t>
   </si>
   <si>
@@ -439,6 +508,9 @@
     <t>4.8.2. Quel est le numéro de téléphone alternatif du membre ? (Si disponible)</t>
   </si>
   <si>
+    <t xml:space="preserve">4.8.2. አማራጭ የስልክ ቁጥር ምንድነው? (ካለ)  </t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -457,6 +529,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -472,6 +547,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -481,18 +559,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -505,6 +592,9 @@
     <t>Accès aux modules autorisé</t>
   </si>
   <si>
+    <t>ለመድረሻዎች የተፈቀደ መዳረሻ</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -517,6 +607,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -526,6 +619,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይደለም  </t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
@@ -538,6 +634,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -550,6 +649,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>HOH</t>
   </si>
   <si>
@@ -562,6 +664,9 @@
     <t>Chef de famille</t>
   </si>
   <si>
+    <t xml:space="preserve">የቤተሰብ አለቃ  </t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -577,6 +682,9 @@
     <t>Conjoint</t>
   </si>
   <si>
+    <t xml:space="preserve">ባል/ሚስት  </t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
@@ -589,6 +697,9 @@
     <t>Fils/Fille</t>
   </si>
   <si>
+    <t xml:space="preserve">ልጅ  </t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -601,6 +712,9 @@
     <t>Frère/Sœur</t>
   </si>
   <si>
+    <t xml:space="preserve">እህት/ወንድም  </t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -613,6 +727,9 @@
     <t>Père/Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">ወላጅ  </t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -625,6 +742,9 @@
     <t>Petit-fils/Petite-fille</t>
   </si>
   <si>
+    <t xml:space="preserve">የልጅ ልጅ  </t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -637,6 +757,9 @@
     <t>Aucun lien</t>
   </si>
   <si>
+    <t xml:space="preserve">ዝምድና የለውም  </t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -649,6 +772,9 @@
     <t>Autre relatif</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ ዘመድ  </t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -661,6 +787,9 @@
     <t>Ne sait pas</t>
   </si>
   <si>
+    <t xml:space="preserve">አያውቅም  </t>
+  </si>
+  <si>
     <t>ENT</t>
   </si>
   <si>
@@ -673,6 +802,9 @@
     <t>Immigration Interne</t>
   </si>
   <si>
+    <t xml:space="preserve">ውስጣዊ መግቢያ እንቅስቃሴ  </t>
+  </si>
+  <si>
     <t>XEN</t>
   </si>
   <si>
@@ -685,6 +817,9 @@
     <t>Immigration Externe</t>
   </si>
   <si>
+    <t xml:space="preserve">ውጫዊ መግቢያ እንቅስቃሴ  </t>
+  </si>
+  <si>
     <t>ENTRY</t>
   </si>
   <si>
@@ -697,6 +832,9 @@
     <t>Première entrée dans le DSS</t>
   </si>
   <si>
+    <t xml:space="preserve">የመጀመሪያ መግቢያ ወደ ዲ.ኤስ.ኤስ  </t>
+  </si>
+  <si>
     <t>REENTRY</t>
   </si>
   <si>
@@ -709,6 +847,9 @@
     <t>Retour au DSS</t>
   </si>
   <si>
+    <t xml:space="preserve">ወደ ዲ.ኤስ.ኤስ መመለስ  </t>
+  </si>
+  <si>
     <t>CAME_WITH_RELATIVES</t>
   </si>
   <si>
@@ -721,6 +862,9 @@
     <t>Il est venu avec ses relatifs</t>
   </si>
   <si>
+    <t xml:space="preserve">ከዘመዶች ጋር መመጣት  </t>
+  </si>
+  <si>
     <t>FARMING</t>
   </si>
   <si>
@@ -733,6 +877,9 @@
     <t>Agriculture</t>
   </si>
   <si>
+    <t xml:space="preserve">ግብርና  </t>
+  </si>
+  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
@@ -745,6 +892,9 @@
     <t>Changement d'état civil</t>
   </si>
   <si>
+    <t xml:space="preserve">የጋብቻ ሁኔታ ለውጥ  </t>
+  </si>
+  <si>
     <t>FISHING</t>
   </si>
   <si>
@@ -757,6 +907,9 @@
     <t>Pêche</t>
   </si>
   <si>
+    <t xml:space="preserve">አሳ ማግኘት  </t>
+  </si>
+  <si>
     <t>EDUCATION</t>
   </si>
   <si>
@@ -769,6 +922,9 @@
     <t>Éducation</t>
   </si>
   <si>
+    <t xml:space="preserve">ትምህርት/ትምህርት ቤት  </t>
+  </si>
+  <si>
     <t>HEALTH_REASON</t>
   </si>
   <si>
@@ -781,6 +937,9 @@
     <t>Santé</t>
   </si>
   <si>
+    <t xml:space="preserve">የጤና ምክንያቶች  </t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -793,6 +952,9 @@
     <t>Travail</t>
   </si>
   <si>
+    <t xml:space="preserve">ስራ  </t>
+  </si>
+  <si>
     <t>NEW_HOUSE</t>
   </si>
   <si>
@@ -805,6 +967,9 @@
     <t>Déménagement vers un nouveau logement</t>
   </si>
   <si>
+    <t xml:space="preserve">ወደ አዲስ ቤት መቀየር  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -817,9 +982,15 @@
     <t>Autre</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ  </t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
+    <t xml:space="preserve">አላውቅም </t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -832,10 +1003,16 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawExternalInMigration</t>
   </si>
   <si>
     <t>External In Migration</t>
+  </si>
+  <si>
+    <t>ውጫዊ መግቢያ እንቅስቃሴ</t>
   </si>
 </sst>
 </file>
@@ -844,9 +1021,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -880,55 +1057,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,7 +1073,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +1088,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,40 +1149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,7 +1164,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,19 +1234,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1270,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,85 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,37 +1408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,30 +1492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1354,6 +1507,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1365,15 +1536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,155 +1574,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1589,20 +1766,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1622,14 +1808,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1948,10 +2153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1963,15 +2168,17 @@
     <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="10" width="39" customWidth="1"/>
-    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1809523809524" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="10" max="10" width="72" customWidth="1"/>
+    <col min="11" max="11" width="36.4761904761905" customWidth="1"/>
+    <col min="12" max="12" width="16.2666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.1809523809524" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2206,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2014,852 +2221,946 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="44" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="44"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="4:13">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14">
       <c r="D8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13">
+        <v>53</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14">
       <c r="D9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>60</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>66</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>72</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" t="b">
         <v>1</v>
       </c>
-      <c r="O13" t="s">
-        <v>76</v>
+      <c r="O13" t="b">
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
       <c r="N14" t="b">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>98</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="N16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>108</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>114</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" s="15" customFormat="1" spans="1:13">
-      <c r="A22" s="22"/>
-      <c r="D22" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="15" customFormat="1" spans="1:16">
-      <c r="A23" s="22"/>
-      <c r="D23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="J19" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="K19" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="15" t="s">
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="E20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:16">
-      <c r="A24" s="22"/>
-      <c r="D24" s="15" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="15" t="s">
+      <c r="I20" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J20" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="K20" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="O24" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" spans="1:14">
-      <c r="A25" s="23" t="s">
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="16" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I21" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="17" customFormat="1" spans="1:14">
-      <c r="A26" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" s="19" customFormat="1" spans="1:14">
+      <c r="A22" s="25"/>
+      <c r="D22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H22" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J22" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="17" customFormat="1" spans="1:17">
-      <c r="A27" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="K22" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="19" customFormat="1" spans="1:17">
+      <c r="A23" s="25"/>
+      <c r="D23" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="E23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="N27" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" s="17" customFormat="1" spans="1:17">
-      <c r="A28" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="I23" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="J23" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="N28" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" s="17" customFormat="1" spans="1:17">
-      <c r="A29" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="K23" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="17" t="s">
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="Q23" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="1:17">
+      <c r="A24" s="25"/>
+      <c r="D24" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="P24" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="N29" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" s="18" customFormat="1" spans="1:14">
-      <c r="A30" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="Q24" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="25" s="20" customFormat="1" spans="1:15">
+      <c r="A25" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="21" customFormat="1" spans="1:15">
+      <c r="A26" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="21" customFormat="1" spans="1:18">
+      <c r="A27" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="O27" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="21" customFormat="1" spans="1:18">
+      <c r="A28" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="O28" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="21" customFormat="1" spans="1:18">
+      <c r="A29" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="O29" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="22" customFormat="1" spans="1:15">
+      <c r="A30" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1"/>
@@ -2904,27 +3205,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" customWidth="1"/>
     <col min="3" max="4" width="22.8190476190476" customWidth="1"/>
     <col min="5" max="5" width="37.1809523809524" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="6" max="6" width="33.7047619047619" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2936,599 +3238,704 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>197</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>228</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>233</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>243</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>249</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>259</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>269</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>274</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>279</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>284</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>289</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="D28" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="E28" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="8"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="8"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="8"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="8"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-    </row>
-    <row r="42" spans="6:6">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="42" spans="6:7">
       <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="6:6">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="6:7">
       <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="6:6">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="6:7">
       <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="6:6">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="6:7">
       <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="6:6">
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="6:7">
       <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="6:6">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="6:7">
       <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="6:6">
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="6:7">
       <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="6:6">
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="6:7">
       <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="6:6">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="6:7">
       <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3540,46 +3947,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="30.2666666666667" customWidth="1"/>
+    <col min="5" max="5" width="32.2095238095238" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>254</v>
+      </c>
+      <c r="E2" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="321">
   <si>
     <t>group</t>
   </si>
@@ -205,6 +205,54 @@
     <t xml:space="preserve">2.4. የአባቱ ስም  </t>
   </si>
   <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>migrationType</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>migtypes</t>
+  </si>
+  <si>
+    <t>2.5. Immigration Type</t>
+  </si>
+  <si>
+    <t>2.5. Tipo de Imigração</t>
+  </si>
+  <si>
+    <t>2.5. Type d'immigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5. የመግቢያ አይነት  </t>
+  </si>
+  <si>
+    <t>selected_only</t>
+  </si>
+  <si>
+    <t>extMigrationType</t>
+  </si>
+  <si>
+    <t>extmigtypes</t>
+  </si>
+  <si>
+    <t>2.5.1. External Inmigration type</t>
+  </si>
+  <si>
+    <t>2.5.1. Tipo de Imigração Externa</t>
+  </si>
+  <si>
+    <t>2.5.1. Type d'immigration externe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5.1. ውጫዊ መግቢያ አይነት  </t>
+  </si>
+  <si>
+    <t>${migrationType} = 'XEN'</t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
@@ -220,12 +268,12 @@
     <t xml:space="preserve">3.1. የአባሉ ስም  </t>
   </si>
   <si>
+    <t>${extMigrationType} = 'REENTRY'</t>
+  </si>
+  <si>
     <t>memberGender</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
     <t>genders</t>
   </si>
   <si>
@@ -277,51 +325,6 @@
     <t xml:space="preserve">3.4. ከየቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
   </si>
   <si>
-    <t>migration</t>
-  </si>
-  <si>
-    <t>migrationType</t>
-  </si>
-  <si>
-    <t>migtypes</t>
-  </si>
-  <si>
-    <t>3.5. Immigration Type</t>
-  </si>
-  <si>
-    <t>3.5. Tipo de Imigração</t>
-  </si>
-  <si>
-    <t>3.5. Type d'immigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5. የመግቢያ አይነት  </t>
-  </si>
-  <si>
-    <t>selected_only</t>
-  </si>
-  <si>
-    <t>extMigrationType</t>
-  </si>
-  <si>
-    <t>extmigtypes</t>
-  </si>
-  <si>
-    <t>3.5.1. External Inmigration type</t>
-  </si>
-  <si>
-    <t>3.5.1. Tipo de Imigração Externa</t>
-  </si>
-  <si>
-    <t>3.5.1. Type d'immigration externe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.1. ውጫዊ መግቢያ አይነት  </t>
-  </si>
-  <si>
-    <t>${migrationType} = 'XEN'</t>
-  </si>
-  <si>
     <t>originCode</t>
   </si>
   <si>
@@ -335,9 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">4.1. የመነሻ ቤተሰብ ኮድ  </t>
-  </si>
-  <si>
-    <t>${extMigrationType} = 'REENTRY'</t>
   </si>
   <si>
     <t>originOther</t>
@@ -1020,9 +1020,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -1057,16 +1057,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,29 +1067,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1110,40 +1080,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,21 +1095,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,7 +1126,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,6 +1157,52 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,7 +1234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1270,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,13 +1330,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,13 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,109 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,30 +1492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1540,21 +1516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1569,8 +1530,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,151 +1550,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2155,8 +2155,8 @@
   <sheetPr/>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2174,6 +2174,7 @@
     <col min="12" max="12" width="16.2666666666667" customWidth="1"/>
     <col min="13" max="13" width="14.1809523809524" customWidth="1"/>
     <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="32.1428571428571" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
     <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
@@ -2427,210 +2428,219 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
       <c r="N8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
       <c r="N9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1"/>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15">
       <c r="D10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1"/>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
       <c r="D11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
       <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
       <c r="N13" t="b">
         <v>1</v>
       </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -2641,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2670,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2708,7 +2718,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
         <v>107</v>
@@ -2734,7 +2744,7 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2794,7 +2804,7 @@
         <v>123</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>124</v>
@@ -2832,7 +2842,7 @@
         <v>130</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>131</v>
@@ -2866,7 +2876,7 @@
         <v>135</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>136</v>
@@ -3288,7 +3298,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>190</v>
@@ -3309,7 +3319,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>195</v>
@@ -3330,7 +3340,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>200</v>
@@ -3353,7 +3363,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>206</v>
@@ -3373,7 +3383,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>211</v>
@@ -3393,7 +3403,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>216</v>
@@ -3413,7 +3423,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>221</v>
@@ -3433,7 +3443,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>226</v>
@@ -3453,7 +3463,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>231</v>
@@ -3473,7 +3483,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>236</v>
@@ -3493,7 +3503,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>241</v>
@@ -3513,7 +3523,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>246</v>
@@ -3533,7 +3543,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>251</v>
@@ -3553,7 +3563,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>256</v>
@@ -3573,7 +3583,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>261</v>

--- a/app/src/main/res/raw/ext_inmigration_form.xlsx
+++ b/app/src/main/res/raw/ext_inmigration_form.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="322">
   <si>
     <t>group</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.4. ከየቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
+    <t>call:isInstitutionalHousehold() = 'false'</t>
   </si>
   <si>
     <t>originCode</t>
@@ -1020,10 +1023,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1057,14 +1060,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1072,16 +1067,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,8 +1081,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,6 +1108,66 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,63 +1197,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1198,13 +1208,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1219,7 +1222,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,7 +1237,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,61 +1399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,103 +1417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,11 +1501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,6 +1527,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1536,51 +1590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1592,152 +1601,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1838,6 +1847,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2155,8 +2167,8 @@
   <sheetPr/>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2593,7 +2605,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
         <v>85</v>
@@ -2621,26 +2633,29 @@
       <c r="N13" t="b">
         <v>1</v>
       </c>
+      <c r="P13" s="45" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -2657,22 +2672,22 @@
     <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
@@ -2686,22 +2701,22 @@
     <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -2715,22 +2730,22 @@
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -2741,25 +2756,25 @@
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -2770,22 +2785,22 @@
     <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
@@ -2793,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2801,26 +2816,26 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -2829,7 +2844,7 @@
       </c>
       <c r="O20" s="24"/>
       <c r="P20" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -2839,26 +2854,26 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I21" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>132</v>
-      </c>
       <c r="K21" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
@@ -2873,25 +2888,25 @@
     <row r="22" s="19" customFormat="1" spans="1:14">
       <c r="A22" s="25"/>
       <c r="D22" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -2902,22 +2917,22 @@
     <row r="23" s="19" customFormat="1" spans="1:17">
       <c r="A23" s="25"/>
       <c r="D23" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -2925,64 +2940,64 @@
         <v>1</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" s="19" customFormat="1" spans="1:17">
       <c r="A24" s="25"/>
       <c r="D24" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="P24" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" s="20" customFormat="1" spans="1:15">
       <c r="A25" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
@@ -2995,25 +3010,25 @@
     </row>
     <row r="26" s="21" customFormat="1" spans="1:15">
       <c r="A26" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -3026,25 +3041,25 @@
     </row>
     <row r="27" s="21" customFormat="1" spans="1:18">
       <c r="A27" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
@@ -3057,25 +3072,25 @@
     </row>
     <row r="28" s="21" customFormat="1" spans="1:18">
       <c r="A28" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K28" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -3088,25 +3103,25 @@
     </row>
     <row r="29" s="21" customFormat="1" spans="1:18">
       <c r="A29" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -3119,25 +3134,25 @@
     </row>
     <row r="30" s="22" customFormat="1" spans="1:15">
       <c r="A30" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
@@ -3236,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3256,43 +3271,43 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3301,19 +3316,19 @@
         <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -3322,19 +3337,19 @@
         <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -3343,22 +3358,22 @@
         <v>86</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3366,19 +3381,19 @@
         <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3386,19 +3401,19 @@
         <v>86</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3406,19 +3421,19 @@
         <v>86</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3426,19 +3441,19 @@
         <v>86</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3446,19 +3461,19 @@
         <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3466,19 +3481,19 @@
         <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3486,19 +3501,19 @@
         <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3506,19 +3521,19 @@
         <v>86</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3526,19 +3541,19 @@
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3546,19 +3561,19 @@
         <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3566,19 +3581,19 @@
         <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3586,220 +3601,220 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G28" s="10"/>
     </row>
@@ -3974,36 +3989,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
